--- a/PCR/VGM_miss/Sent_Mails_Status_06.xlsx
+++ b/PCR/VGM_miss/Sent_Mails_Status_06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL10"/>
+  <dimension ref="A1:CK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,487 +438,489 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Port</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Port</t>
+          <t>Pool Location</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Pool Location</t>
+          <t>Data Source</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Data Source</t>
+          <t>Container Number</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Container Number</t>
+          <t>Container Size</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Container Size</t>
+          <t>Container Type</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Container Type</t>
+          <t>ISO Code</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ISO Code</t>
+          <t>Empty</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Paying empty</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Paying empty</t>
+          <t>Reefer</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Reefer</t>
+          <t>Temp. Setting</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Temp. Setting</t>
+          <t>Non Operating Reefer</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Non Operating Reefer</t>
+          <t>Flexi Tank</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Flexi Tank</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Approval Hazardous</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Approval Hazardous</t>
+          <t>Packing Group</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Packing Group</t>
+          <t>IMO</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>IMO</t>
+          <t>UNDG</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>UNDG</t>
+          <t>OOG</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>OOG</t>
+          <t>Lost Slots</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Lost Slots</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>JBHDR_HP_FLAG</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>JBHDR_HP_FLAG</t>
+          <t>PDT_RANK</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>PDT_RANK</t>
+          <t>Detail_Rank</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Detail_Rank</t>
+          <t>Operator</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Operator</t>
+          <t>BOL Number</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>BOL Number</t>
+          <t>Booking Number</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Booking Number</t>
+          <t>Booking Agent</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Booking Agent</t>
+          <t>Booking Agent Name</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Booking Agent Name</t>
+          <t>Booking Party</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Booking Party</t>
+          <t>SQ Reference</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>SQ Reference</t>
+          <t>Shipper Name</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Shipper Name</t>
+          <t>Consignee Name</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Consignee Name</t>
+          <t>Notify Name</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Notify Name</t>
+          <t>Decidee Name</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Decidee Name</t>
+          <t>Commodity Description</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Commodity Description</t>
+          <t>First POL</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>First POL</t>
+          <t>Next POD</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Next POD</t>
+          <t>Final POD</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Final POD</t>
+          <t>Destination Area</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Destination Area</t>
+          <t>Discharge Instruction</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Discharge Instruction</t>
+          <t>Final Place of Delivery</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Final Place of Delivery</t>
+          <t>Next POD Pool Location</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Next POD Pool Location</t>
+          <t>Last Tracking Move</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Last Tracking Move</t>
+          <t>Last Tracking Move Date</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Last Tracking Move Date</t>
+          <t>Idle Time (Days)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Idle Time (Days)</t>
+          <t>Idle Time Period</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Idle Time Period</t>
+          <t>Expected Idle Time (days)</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Expected Idle Time (days)</t>
+          <t>Nb Unit Partloaded</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Nb Unit Partloaded</t>
+          <t>TEU Standard Partloaded</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>TEU Standard Partloaded</t>
+          <t>TEU Sales Partloaded</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>TEU Sales Partloaded</t>
+          <t>Gross Weight Partloaded</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Gross Weight Partloaded</t>
+          <t>Verified Gross Mass</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Verified Gross Mass</t>
+          <t>Verified Gross Mass Unit</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Verified Gross Mass Unit</t>
+          <t>Line @ CALL</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Line @ CALL</t>
+          <t>Vessel Name @ CALL</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Vessel Name @ CALL</t>
+          <t>Voyage @ CALL</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>Voyage @ CALL</t>
+          <t>Service @ CALL</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Service @ CALL</t>
+          <t>Connection Alert</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>Connection Alert</t>
+          <t>Next Line</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>Next Line</t>
+          <t>Next Service</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>Next Service</t>
+          <t>Next Vessel Name</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>Next Vessel Name</t>
+          <t>Next Vessel Code</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>Next Vessel Code</t>
+          <t>Next Voyage</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>Next Voyage</t>
+          <t>Next Voyage ETA</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>Next Voyage ETA</t>
+          <t>Next Voyage ETD</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>Next Voyage ETD</t>
+          <t>Next Line 2</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>Next Line 2</t>
+          <t>Next Service 2</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>Next Service 2</t>
+          <t>Next Vessel Name 2</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>Next Vessel Name 2</t>
+          <t>Next Vessel Code 2</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>Next Vessel Code 2</t>
+          <t>Next Voyage 2</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>Next Voyage 2</t>
+          <t>Next Voyage 2 ETA</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>Next Voyage 2 ETA</t>
+          <t>Next Voyage 2 ETD</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>Next Voyage 2 ETD</t>
+          <t>Comment (from lara cargo)</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>Comment (from lara cargo)</t>
+          <t>Cut Flag</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>Cut Flag</t>
+          <t>On Hold Reason (from lara)</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>On Hold Reason (from lara)</t>
+          <t>On Hold Requested By (from lara)</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>On Hold Requested By (from lara)</t>
+          <t>Loop Routing</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>Loop Routing</t>
+          <t>Arrival (at LSP) - Execution</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>Arrival (at LSP) - Execution</t>
+          <t>Arrival (at LSP) - Baseline</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>Arrival (at LSP) - Baseline</t>
+          <t>Gap</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>Gap</t>
+          <t>Gap Customer</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>Gap Customer</t>
+          <t>Gap Carrier</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>Gap Carrier</t>
+          <t>Wrongly Nominated</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>Wrongly Nominated</t>
+          <t>Customer Type</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>Customer Type</t>
+          <t>Named account</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>Named account</t>
+          <t>Booking Channel</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>Booking Channel</t>
+          <t>Booking Communication Tool</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>Booking Communication Tool</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>Mail_Remark</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>480</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INMUNDCMA</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>CAAU6329522</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>TRHU4632484</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>40</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>45G1</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>45G1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -931,12 +933,12 @@
           <t>N</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>N</t>
@@ -947,213 +949,205 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CBO0258097</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>AID0255293</t>
+          <t>CBO0258097</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>AID0255293</t>
+          <t>CBO</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>AID</t>
+          <t>CMA CGM Lanka</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>CMA CGM Agencies India</t>
+          <t>ASB FREIGHT PVT LTD</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>RIGHT WAY SHIPPING AGENCIES</t>
+          <t>TAINDIAFAK</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>FL1097-MID-A-001</t>
+          <t>GO GREEN EXPORTS (PVT) LTD</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>LUCKY MULTITRADE INDIA</t>
+          <t>GO GREEN IMPORTS INC.</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>HAMISU SALISU</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>HAMISU SALISU</t>
-        </is>
-      </c>
+          <t xml:space="preserve">GO GREEN IMPORTS INC. </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>RIGHT WAY SHIPPING AGENCIES</t>
+          <t>Coconut, abaca "Manila hemp or Musa textilis Nee", ramie, ag</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>Matches (excl. pyrotechnic articles of heading 3604)</t>
+          <t>LKCMB</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>INTUT</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>BJCOO</t>
+          <t>CAVAN</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>BJCOO</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Benin</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>CACAL</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>CAVANMDLP</t>
+        </is>
+      </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>BJCOOTCCT</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
           <t>TDF</t>
         </is>
       </c>
-      <c r="AT2" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>3.721631944444</v>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 to 7 days  </t>
-        </is>
+      <c r="AS2" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>14.192268518518</v>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 to 14 days </t>
+        </is>
+      </c>
+      <c r="AV2" t="n">
+        <v>15.333333333333</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.416666666666</v>
+        <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY2" t="n">
         <v>2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>19.66</v>
-      </c>
+        <v>30.436</v>
+      </c>
+      <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>CMX</t>
+        </is>
+      </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>XIN SHANGHAI</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>SSL GUJARAT</t>
+          <t>0KC3WE1MA</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>175G6R</t>
+          <t>AS6</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>3FCMA</t>
+          <t xml:space="preserve">Ok                           </t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok                           </t>
+          <t>TRA</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>WAX</t>
+          <t>DAH</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>MIDAS1</t>
+          <t>OOCL CHICAGO</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>MARATHOPOLIS</t>
+          <t>OOCHG</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>MATPS</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>0MSE9W1MA</t>
-        </is>
+          <t>0TPD3E1MA</t>
+        </is>
+      </c>
+      <c r="BM2" s="2" t="n">
+        <v>44863.33333333334</v>
       </c>
       <c r="BN2" s="2" t="n">
-        <v>44843.4166666551</v>
-      </c>
-      <c r="BO2" s="2" t="n">
-        <v>44844.2916666551</v>
-      </c>
+        <v>44864.0625</v>
+      </c>
+      <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
@@ -1161,88 +1155,81 @@
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
-      <c r="CA2" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
+      <c r="CA2" s="2" t="n">
+        <v>44880.375</v>
       </c>
       <c r="CB2" s="2" t="n">
-        <v>44873.20833333334</v>
-      </c>
-      <c r="CC2" s="2" t="n">
-        <v>44872.3125</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
+        <v>44865.75</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
       <c r="CF2" t="inlineStr"/>
       <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="inlineStr">
-        <is>
-          <t>Freight Forwarder</t>
-        </is>
-      </c>
-      <c r="CI2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>WEB</t>
+        </is>
+      </c>
       <c r="CJ2" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>BKG_1STEP</t>
         </is>
       </c>
       <c r="CK2" t="inlineStr">
-        <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL2" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>482</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INMUNDCMA</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CMAU7229591</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>TCNU5424368</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>40</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>45G1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>45G1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -1255,12 +1242,12 @@
           <t>N</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>N</t>
@@ -1271,302 +1258,319 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CDM0149106</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>AID0255293</t>
+          <t>CDM0149106</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>AID0255293</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>AID</t>
+          <t>CMA CGM DOMINICANA, S.A.</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>CMA CGM Agencies India</t>
+          <t>EXPORTADORA DE VEGETALES</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>RIGHT WAY SHIPPING AGENCIES</t>
+          <t>CL002517763IR-A-001</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>FL1097-MID-A-001</t>
+          <t>BMR GLOBAL CORPORATION</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>LUCKY MULTITRADE INDIA</t>
+          <t>TUNG HO STEEL ENTERPRISE CORP</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>HAMISU SALISU</t>
+          <t>TUNG HO STEEL ENTERPRISE CORP</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>HAMISU SALISU</t>
+          <t>BMR GLOBAL CORPORATION</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>RIGHT WAY SHIPPING AGENCIES</t>
+          <t>Waste and scrap of iron or steel (excl. slag, scale and othe</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>Matches (excl. pyrotechnic articles of heading 3604)</t>
+          <t>DOCAU</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>INTUT</t>
+          <t>TWKEL</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>BJCOO</t>
+          <t>TWTXG</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>BJCOO</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Benin</t>
-        </is>
-      </c>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>TWKELDULI</t>
+        </is>
+      </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>BJCOOTCCT</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
           <t>TDF</t>
         </is>
       </c>
-      <c r="AT3" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3.725104166666</v>
-      </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AS3" s="2" t="n">
+        <v>44857</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>4.969351851851</v>
+      </c>
+      <c r="AU3" t="inlineStr">
         <is>
           <t xml:space="preserve">0 to 7 days  </t>
         </is>
       </c>
+      <c r="AV3" t="n">
+        <v>10.25</v>
+      </c>
       <c r="AW3" t="n">
-        <v>6.416666666666</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY3" t="n">
         <v>2</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>19.66</v>
-      </c>
+        <v>18.03</v>
+      </c>
+      <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>WCS</t>
+        </is>
+      </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>CMA CGM THALASSA</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>SSL GUJARAT</t>
+          <t>0PPDXE1MA</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>175G6R</t>
+          <t>PEX2</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>3FCMA</t>
+          <t xml:space="preserve">Ok                           </t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok                           </t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>WAX</t>
+          <t>JTX</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>MIDAS1</t>
+          <t>CNC VENUS</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>MARATHOPOLIS</t>
+          <t>CNVNS</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>MATPS</t>
-        </is>
-      </c>
-      <c r="BM3" t="inlineStr">
-        <is>
-          <t>0MSE9W1MA</t>
-        </is>
+          <t>0QIDAN1MA</t>
+        </is>
+      </c>
+      <c r="BM3" s="2" t="n">
+        <v>44867.25</v>
       </c>
       <c r="BN3" s="2" t="n">
-        <v>44843.4166666551</v>
-      </c>
-      <c r="BO3" s="2" t="n">
-        <v>44844.2916666551</v>
-      </c>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
+        <v>44867.83333333334</v>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>JTV</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>CONSIGNIA</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>CIGNA</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>0TVCPS1MA</t>
+        </is>
+      </c>
+      <c r="BT3" s="2" t="n">
+        <v>44871.6875</v>
+      </c>
+      <c r="BU3" s="2" t="n">
+        <v>44872.1875</v>
+      </c>
       <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
-      <c r="CA3" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>DOCAU / HKHKG / TWTXG</t>
+        </is>
+      </c>
+      <c r="CA3" s="2" t="n">
+        <v>44872.20833333334</v>
       </c>
       <c r="CB3" s="2" t="n">
-        <v>44873.20833333334</v>
-      </c>
-      <c r="CC3" s="2" t="n">
-        <v>44872.3125</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>1</v>
-      </c>
+        <v>44830</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>42</v>
+      </c>
+      <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr">
-        <is>
-          <t>Freight Forwarder</t>
-        </is>
-      </c>
-      <c r="CI3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>Beneficial Cargo Owner</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>WEB</t>
+        </is>
+      </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>BKG_1STEP</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
-        <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL3" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2734</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INMUNDADN</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HJCU1543854</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>TEMU7531030</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>40</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>45G0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>45G1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1579,12 +1583,12 @@
           <t>N</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>N</t>
@@ -1595,310 +1599,295 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CNB0213156</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>CMD0148312</t>
+          <t>CNB0213156</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>CMD0148312</t>
+          <t>CNB</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>CMD</t>
+          <t>CMA CGM MALAYSIA SDN BHD (813160-P)</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>CMA CGM Agencies India</t>
+          <t>ECU WORLDWIDE (M) SDB BHD</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>AIRLIFT TRANS OCEANIC PVT LTD</t>
+          <t>QCHQ037246</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>TA-INDAMEX</t>
+          <t>ECU WORLDWIDE (MALAYSIA) SDN BHD</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>AIRLIFT TRANS PACIFIC PVT LTD</t>
+          <t>ECU WORLDWIDE (PHILIPPINES) INC.</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>AIRLIFT USA INC</t>
+          <t>ECU WORLDWIDE (PHILIPPINES) INC.</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>AIRLIFT USA INC</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr"/>
+          <t>ECU WORLDWIDE (HONG KONG) LTD</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Wooden furniture for kitchens (excl. seats)</t>
+        </is>
+      </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Flexible intermediate bulk containers, for the packing of go</t>
+          <t>MYPEN</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>INIXE</t>
+          <t>PHCEB</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>ESBCN</t>
+          <t>PHCEB</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>USMIA</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>USA - South Atlantic</t>
-        </is>
-      </c>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>PHCEBDCBP</t>
+        </is>
+      </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>ESBCND24X</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>TTI</t>
-        </is>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>44838</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>4.171631944444</v>
-      </c>
-      <c r="AV4" t="inlineStr">
+          <t>TDF</t>
+        </is>
+      </c>
+      <c r="AS4" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.181157407407</v>
+      </c>
+      <c r="AU4" t="inlineStr">
         <is>
           <t xml:space="preserve">0 to 7 days  </t>
         </is>
       </c>
+      <c r="AV4" t="n">
+        <v>5.020833333333</v>
+      </c>
       <c r="AW4" t="n">
-        <v>3.625</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY4" t="n">
         <v>2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>21.545</v>
-      </c>
+        <v>26.185</v>
+      </c>
+      <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>QINGDAO TOWER</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>SSL GUJARAT</t>
+          <t>0BYCAN1NC</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>175G6R</t>
+          <t>KCM2CNC</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>3FCMA</t>
+          <t xml:space="preserve">Ok                           </t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok                           </t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>MEI</t>
+          <t>CP2CNC</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>MEDEX</t>
+          <t>AS ROMINA</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
         <is>
-          <t>APL ANTWERP</t>
+          <t>ASRMI</t>
         </is>
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>APANR</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>0MXD3W1MA</t>
-        </is>
+          <t>1CP3BE1NC</t>
+        </is>
+      </c>
+      <c r="BM4" s="2" t="n">
+        <v>44864.02083333334</v>
       </c>
       <c r="BN4" s="2" t="n">
-        <v>44841.625</v>
-      </c>
-      <c r="BO4" s="2" t="n">
-        <v>44842.7916666551</v>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>AMERIGO</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>CMA CGM DALILA</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>CGILA</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>0MRBXW1MA</t>
-        </is>
-      </c>
-      <c r="BU4" s="2" t="n">
-        <v>44876.77083333334</v>
-      </c>
-      <c r="BV4" s="2" t="n">
-        <v>44877.5625</v>
-      </c>
-      <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+        <v>44864.5416666551</v>
+      </c>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
-      <c r="CA4" t="inlineStr"/>
+      <c r="CA4" s="2" t="n">
+        <v>44867.7916666551</v>
+      </c>
       <c r="CB4" s="2" t="n">
-        <v>44894.02083333334</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>44895.6666666551</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>-1</v>
-      </c>
+        <v>44861.08333333334</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr"/>
       <c r="CF4" t="inlineStr"/>
-      <c r="CG4" t="inlineStr"/>
-      <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr"/>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>Freight Forwarder</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>MANDAUE FOAM INDUSTRIES INC</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>WEB</t>
+        </is>
+      </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>BKG_1STEP</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
-        <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL4" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>2776</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INMUNDCMA</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>APZU3684293</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>20</v>
+          <t>GESU6531360</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>45G0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>22G1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1911,12 +1900,12 @@
           <t>N</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>N</t>
@@ -1927,209 +1916,211 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Priority cargo to be loaded (No Roll)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CNB0214122</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>CMD0148338</t>
+          <t>CNB0214122</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>CMD0148338</t>
+          <t>CNB</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>CMD</t>
+          <t>CMA CGM MALAYSIA SDN BHD (813160-P)</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>CMA CGM Agencies India</t>
+          <t>NYS INTERNATIONAL FREIGHT SDN BHD</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>SRI GANESH SHIPPING AGENCY</t>
+          <t>QSPOT2081470</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>FL5442-CMX-A-001</t>
+          <t>CHESO MACHINERY PTE LTD</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>SREE DEVI CASHEW INDUSTRIES</t>
+          <t>DONGGUAN HENGDA IMPORT AND EXPORT</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>NINJA FOODSTUFF LLC</t>
+          <t>DONGGUAN HENGDA IMPORT AND EXPORT</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>NINJA FOODSTUFF LLC</t>
+          <t>NYS INTERNATIONAL FREIGHT SDN BHD</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>SRI GANESH SHIPPING AGENCY</t>
+          <t>Injection-moulding machines for working rubber or plastics</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Fresh or dried cashew nuts, shelled</t>
+          <t>MYPEN</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>INIXE</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>AEJEA</t>
+          <t>CNSHK</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>AEJEA</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Dubai</t>
-        </is>
-      </c>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>CNSHKDSCT</t>
+        </is>
+      </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>AEJEADDP4</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
           <t>TDF</t>
         </is>
       </c>
-      <c r="AT5" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>3.7146875</v>
-      </c>
-      <c r="AV5" t="inlineStr">
+      <c r="AS5" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.184629629629</v>
+      </c>
+      <c r="AU5" t="inlineStr">
         <is>
           <t xml:space="preserve">0 to 7 days  </t>
         </is>
       </c>
+      <c r="AV5" t="n">
+        <v>1.208333333333</v>
+      </c>
       <c r="AW5" t="n">
-        <v>5.354166666666</v>
+        <v>1</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>18.72</v>
-      </c>
+        <v>18.63</v>
+      </c>
+      <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>CNC</t>
+        </is>
+      </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>QINGDAO TOWER</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>SSL GUJARAT</t>
+          <t>0BYCAN1NC</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>175G6R</t>
+          <t>KCM2CNC</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>3FCMA</t>
+          <t>Nomination on departed vessel</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok                           </t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>EXTCNC</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>SWAX2</t>
+          <t>TBN FEEDER 11</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
         <is>
-          <t>AS NORA</t>
+          <t>TBN11</t>
         </is>
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>ASNRA</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>02SCRS1MA</t>
-        </is>
+          <t>E6L2INCNC</t>
+        </is>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>44860.20833333334</v>
       </c>
       <c r="BN5" s="2" t="n">
-        <v>44842.3541666551</v>
-      </c>
-      <c r="BO5" s="2" t="n">
-        <v>44843.2291666551</v>
-      </c>
+        <v>44860.25</v>
+      </c>
+      <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
@@ -2137,84 +2128,89 @@
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
-      <c r="BX5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX5" t="inlineStr"/>
       <c r="BY5" t="inlineStr"/>
-      <c r="BZ5" t="inlineStr"/>
-      <c r="CA5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>[SCHEDULE:0BYCAN1NC]</t>
+        </is>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>44861.06805555556</v>
+      </c>
       <c r="CB5" s="2" t="n">
-        <v>44846.125</v>
-      </c>
-      <c r="CC5" s="2" t="n">
-        <v>44846.0416666551</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
+        <v>44860.625</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr"/>
-      <c r="CF5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>Nomination on departed vessel</t>
+        </is>
+      </c>
       <c r="CG5" t="inlineStr"/>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>Freight Forwarder</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr"/>
+      <c r="CH5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>WEB</t>
+        </is>
+      </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>FREDDIE</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
-        <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL5" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4304</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>INMUNDCMA</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>APHU7378576</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>CGMU5063679</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>40</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>45R1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>45G1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2224,15 +2220,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>-22</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>N</t>
@@ -2243,318 +2241,295 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CUR9052799A</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>EDP0158579</t>
+          <t>CUR9052799A</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>EDP0158579</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>EDP</t>
+          <t>CMA CGM do Brasil Agencia Maritima</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>CMA CGM AGENCIES (INDIA) PVT LTD</t>
+          <t>SEARA ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>LP INDIA LOGISTICS PVT LTD</t>
+          <t>QSSZ021890</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>QEDP035343</t>
+          <t>SEARA ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>SULPHUR MILLS LIMITED</t>
+          <t>THE PUREFOODS HORMEL CO., INC.</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>SUMITOMO CHEMICAL BRASIL</t>
+          <t>THE PUREFOODS HORMEL CO. INC.</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>SUMITOMO CHEMICAL BRASIL</t>
+          <t>FRIGORIFICO MATABOI SA</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>SULPHUR MILLS LTD</t>
+          <t xml:space="preserve">Frozen cuts and edible offal of fowls of the species Gallus </t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Other goods specified in Subheading Note 2 to this Chapter</t>
+          <t>BRNVT</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>INHZA</t>
+          <t>PHBTG</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>PHBTG</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>BRSSZ</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Eastern Brazil</t>
-        </is>
-      </c>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>PHBTGDTER</t>
+        </is>
+      </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>MAPTMDMED</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
           <t>TDF</t>
         </is>
       </c>
-      <c r="AT6" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>3.974409722222</v>
-      </c>
-      <c r="AV6" t="inlineStr">
+      <c r="AS6" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1.869351851851</v>
+      </c>
+      <c r="AU6" t="inlineStr">
         <is>
           <t xml:space="preserve">0 to 7 days  </t>
         </is>
       </c>
+      <c r="AV6" t="n">
+        <v>4.020833333333</v>
+      </c>
       <c r="AW6" t="n">
-        <v>4.541666666666</v>
+        <v>1</v>
       </c>
       <c r="AX6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" t="n">
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>26.771</v>
-      </c>
+        <v>33.655</v>
+      </c>
+      <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>ECS</t>
+        </is>
+      </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>ANTHEA Y</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>SSL GUJARAT</t>
+          <t>0AACME1MA</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>175G6R</t>
+          <t>SEAS</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>3FCMA</t>
+          <t xml:space="preserve">Ok                           </t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok                           </t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>MEI</t>
+          <t>CP2NCMA</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>EPIC</t>
+          <t>AS ROMINA</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
         <is>
-          <t>CMA CGM FIDELIO</t>
+          <t>ASRMI</t>
         </is>
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>CMFID</t>
-        </is>
-      </c>
-      <c r="BM6" t="inlineStr">
-        <is>
-          <t>0PE4VW1MA</t>
-        </is>
+          <t>1CP3BE1MA</t>
+        </is>
+      </c>
+      <c r="BM6" s="2" t="n">
+        <v>44864.02083333334</v>
       </c>
       <c r="BN6" s="2" t="n">
-        <v>44841.5416666551</v>
-      </c>
-      <c r="BO6" s="2" t="n">
-        <v>44842.5416666551</v>
-      </c>
-      <c r="BP6" t="inlineStr">
-        <is>
-          <t>ECS</t>
-        </is>
-      </c>
-      <c r="BQ6" t="inlineStr">
-        <is>
-          <t>SIRIUS</t>
-        </is>
-      </c>
-      <c r="BR6" t="inlineStr">
-        <is>
-          <t>MAERSK LAMANAI</t>
-        </is>
-      </c>
-      <c r="BS6" t="inlineStr">
-        <is>
-          <t>MKLAM</t>
-        </is>
-      </c>
-      <c r="BT6" t="inlineStr">
-        <is>
-          <t>0NSCYN1MA</t>
-        </is>
-      </c>
-      <c r="BU6" s="2" t="n">
-        <v>44861.625</v>
-      </c>
-      <c r="BV6" s="2" t="n">
-        <v>44862.33333333334</v>
-      </c>
-      <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+        <v>44864.5416666551</v>
+      </c>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
-      <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="CA6" s="2" t="n">
+        <v>44866.25</v>
+      </c>
       <c r="CB6" s="2" t="n">
-        <v>44876.4166666551</v>
-      </c>
-      <c r="CC6" s="2" t="n">
-        <v>44876.33333333334</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
+        <v>44844.4375</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>22</v>
+      </c>
+      <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr"/>
-      <c r="CG6" t="inlineStr"/>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>Beneficial Cargo Owner</t>
+        </is>
+      </c>
       <c r="CH6" t="inlineStr"/>
-      <c r="CI6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>INTTRA</t>
+        </is>
+      </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
-        <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL6" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>4306</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INMUNDCMA</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>TCNU2660457</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>CGMU9384131</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>40</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>45R1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>45G1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2564,15 +2539,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-22</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>N</t>
@@ -2583,318 +2560,295 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CUR9052799A</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>EDP0158580</t>
+          <t>CUR9052799A</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>EDP0158580</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>EDP</t>
+          <t>CMA CGM do Brasil Agencia Maritima</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>CMA CGM AGENCIES (INDIA) PVT LTD</t>
+          <t>SEARA ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>LP INDIA LOGISTICS PVT LTD</t>
+          <t>QSSZ021890</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>QEDP035343</t>
+          <t>SEARA ALIMENTOS LTDA</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>SULPHUR MILLS LIMITED</t>
+          <t>THE PUREFOODS HORMEL CO., INC.</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>SUMITOMO CHEMICAL BRASIL IND.</t>
+          <t>THE PUREFOODS HORMEL CO. INC.</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>SUMITOMO CHEMICAL BRASIL IND.</t>
+          <t>FRIGORIFICO MATABOI SA</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>SULPHUR MILLS LTD</t>
+          <t xml:space="preserve">Frozen cuts and edible offal of fowls of the species Gallus </t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>Other goods specified in Subheading Note 2 to this Chapter</t>
+          <t>BRNVT</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>INHZA</t>
+          <t>PHBTG</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>PHBTG</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>BRSSZ</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Eastern Brazil</t>
-        </is>
-      </c>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>PHBTGDTER</t>
+        </is>
+      </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>MAPTMDMED</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
           <t>TDF</t>
         </is>
       </c>
-      <c r="AT7" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>4.0271875</v>
-      </c>
-      <c r="AV7" t="inlineStr">
+      <c r="AS7" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1.867962962962</v>
+      </c>
+      <c r="AU7" t="inlineStr">
         <is>
           <t xml:space="preserve">0 to 7 days  </t>
         </is>
       </c>
+      <c r="AV7" t="n">
+        <v>4.020833333333</v>
+      </c>
       <c r="AW7" t="n">
-        <v>4.541666666666</v>
+        <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>26.721</v>
-      </c>
+        <v>33.682</v>
+      </c>
+      <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>ECS</t>
+        </is>
+      </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>ANTHEA Y</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>SSL GUJARAT</t>
+          <t>0AACME1MA</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>175G6R</t>
+          <t>SEAS</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>3FCMA</t>
+          <t xml:space="preserve">Ok                           </t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok                           </t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>MEI</t>
+          <t>CP2NCMA</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>EPIC</t>
+          <t>AS ROMINA</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
         <is>
-          <t>CMA CGM FIDELIO</t>
+          <t>ASRMI</t>
         </is>
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>CMFID</t>
-        </is>
-      </c>
-      <c r="BM7" t="inlineStr">
-        <is>
-          <t>0PE4VW1MA</t>
-        </is>
+          <t>1CP3BE1MA</t>
+        </is>
+      </c>
+      <c r="BM7" s="2" t="n">
+        <v>44864.02083333334</v>
       </c>
       <c r="BN7" s="2" t="n">
-        <v>44841.5416666551</v>
-      </c>
-      <c r="BO7" s="2" t="n">
-        <v>44842.5416666551</v>
-      </c>
-      <c r="BP7" t="inlineStr">
-        <is>
-          <t>ECS</t>
-        </is>
-      </c>
-      <c r="BQ7" t="inlineStr">
-        <is>
-          <t>SIRIUS</t>
-        </is>
-      </c>
-      <c r="BR7" t="inlineStr">
-        <is>
-          <t>MAERSK LAMANAI</t>
-        </is>
-      </c>
-      <c r="BS7" t="inlineStr">
-        <is>
-          <t>MKLAM</t>
-        </is>
-      </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>0NSCYN1MA</t>
-        </is>
-      </c>
-      <c r="BU7" s="2" t="n">
-        <v>44861.625</v>
-      </c>
-      <c r="BV7" s="2" t="n">
-        <v>44862.33333333334</v>
-      </c>
-      <c r="BW7" t="inlineStr"/>
-      <c r="BX7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+        <v>44864.5416666551</v>
+      </c>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX7" t="inlineStr"/>
       <c r="BY7" t="inlineStr"/>
-      <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>SEAS</t>
+        </is>
+      </c>
+      <c r="CA7" s="2" t="n">
+        <v>44866.25</v>
+      </c>
       <c r="CB7" s="2" t="n">
-        <v>44876.4166666551</v>
-      </c>
-      <c r="CC7" s="2" t="n">
-        <v>44876.33333333334</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
+        <v>44844.4375</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>22</v>
+      </c>
+      <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
       <c r="CF7" t="inlineStr"/>
-      <c r="CG7" t="inlineStr"/>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>Beneficial Cargo Owner</t>
+        </is>
+      </c>
       <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>INTTRA</t>
+        </is>
+      </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
-        <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL7" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>4309</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INMUNDCMA</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TRHU2680483</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>20</v>
+          <t>CXRU1039907</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>45R1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22G0</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2904,15 +2858,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-18</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>N</t>
@@ -2923,318 +2879,287 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
+          <t>NAM5674788</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>NAM5674788</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>CMA  CGM America</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>LAMEX FOODS INC</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>21-2109</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>LAMEX FOODS INC</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>GUANGZHOU FENGYOU TRADE CO.,LTD</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>GUANGZHOU FENGYOU TRADE CO.,LTD</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>LAMEX FOODS INC</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frozen cuts and edible offal of fowls of the species Gallus </t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>USSAV</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>CNNSA</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>CNNSA</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>CNNSADOCT</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>TDF</t>
+        </is>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.671435185185</v>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 to 7 days  </t>
+        </is>
+      </c>
+      <c r="AV8" t="n">
+        <v>3.791666666666</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>32.491</v>
+      </c>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>TRA</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>COSCO EXCELLENCE</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>0UPDHE1MA</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>SAX</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ok                           </t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
           <t>CMA</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>EDP0158584</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>EDP0158584</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>EDP</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>CMA CGM AGENCIES (INDIA) PVT LTD</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>LP INDIA LOGISTICS PVT LTD</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>QEDP035343</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>SULPHUR MILLS LIMITED</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>UPL DO BRASIL – ITUVERAVA;</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>UPL DO BRASIL – ITUVERAVA;</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>SULPHUR MILLS LTD</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Insecticides (excl. goods of subheading 3808.50)</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>INHZA</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>MAPTM</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>BRSSZ</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Eastern Brazil</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>MAPTMDMED</t>
-        </is>
-      </c>
-      <c r="AS8" t="inlineStr">
-        <is>
-          <t>TDF</t>
-        </is>
-      </c>
-      <c r="AT8" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>3.751493055555</v>
-      </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 to 7 days  </t>
-        </is>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.541666666666</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr">
-        <is>
-          <t>SSE</t>
-        </is>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>SSL GUJARAT</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>175G6R</t>
-        </is>
-      </c>
-      <c r="BG8" t="inlineStr">
-        <is>
-          <t>3FCMA</t>
-        </is>
-      </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ok                           </t>
-        </is>
-      </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>MEI</t>
+          <t>BMX</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>EPIC</t>
+          <t>CMA CGM WHITE SHARK</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>CMA CGM FIDELIO</t>
+          <t>CMSHR</t>
         </is>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>CMFID</t>
-        </is>
-      </c>
-      <c r="BM8" t="inlineStr">
-        <is>
-          <t>0PE4VW1MA</t>
-        </is>
+          <t>0XW15S1MA</t>
+        </is>
+      </c>
+      <c r="BM8" s="2" t="n">
+        <v>44864.7916666551</v>
       </c>
       <c r="BN8" s="2" t="n">
-        <v>44841.5416666551</v>
-      </c>
-      <c r="BO8" s="2" t="n">
-        <v>44842.5416666551</v>
-      </c>
-      <c r="BP8" t="inlineStr">
-        <is>
-          <t>ECS</t>
-        </is>
-      </c>
-      <c r="BQ8" t="inlineStr">
-        <is>
-          <t>SIRIUS</t>
-        </is>
-      </c>
-      <c r="BR8" t="inlineStr">
-        <is>
-          <t>MAERSK LAMANAI</t>
-        </is>
-      </c>
-      <c r="BS8" t="inlineStr">
-        <is>
-          <t>MKLAM</t>
-        </is>
-      </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>0NSCYN1MA</t>
-        </is>
-      </c>
-      <c r="BU8" s="2" t="n">
-        <v>44861.625</v>
-      </c>
-      <c r="BV8" s="2" t="n">
-        <v>44862.33333333334</v>
-      </c>
-      <c r="BW8" t="inlineStr"/>
-      <c r="BX8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+        <v>44865.25</v>
+      </c>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
-      <c r="CA8" t="inlineStr"/>
-      <c r="CB8" s="2" t="n">
-        <v>44876.4166666551</v>
-      </c>
-      <c r="CC8" s="2" t="n">
-        <v>44876.33333333334</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
+      <c r="CA8" s="2" t="n">
+        <v>44866.08333333334</v>
+      </c>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
       <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr"/>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>Beneficial Cargo Owner</t>
+        </is>
+      </c>
       <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>WEB</t>
+        </is>
+      </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>BKG_1STEP</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL8" t="inlineStr">
-        <is>
-          <t>Sent</t>
+          <t>Not Sent</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>4311</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INMUNDCMA</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>APHU7058947</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>TCLU8861600</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>40</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>45G1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>45G1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3247,12 +3172,12 @@
           <t>N</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>N</t>
@@ -3263,318 +3188,301 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="W9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Priority cargo to be loaded (No Roll)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>SIJ0405203</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>EDP0158615</t>
+          <t>SIJ0405203</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>EDP0158615</t>
+          <t>SIJ</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>EDP</t>
+          <t>CMA CGM &amp; ANL (SINGAPORE) PTE LTD</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>CMA CGM AGENCIES (INDIA) PVT LTD</t>
+          <t>SABIC ASIA PACIFIC PTE LTD</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>LP INDIA LOGISTICS PVT LTD</t>
+          <t>GA188P-DIT</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>QEDP035343</t>
+          <t>SABIC (CHINA) HOLDING CO., LTD.</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>SULPHUR MILLS LIMITED</t>
+          <t>TO ORDER</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>SUMITOMO CHEMICAL BRASIL IND.</t>
+          <t>XIAMEN AVIATION DEVELOPMENT</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>SUMITOMO CHEMICAL BRASIL IND.</t>
+          <t>SABIC</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>SULPHUR MILLS LTD</t>
+          <t>Polyethylene with a specific gravity of &lt; 0,94, in primary f</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Other goods specified in Subheading Note 2 to this Chapter</t>
+          <t>SGSIN</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>INHZA</t>
+          <t>CNHUA</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>MAPTM</t>
+          <t>CNHUA</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>BRSSZ</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Eastern Brazil</t>
-        </is>
-      </c>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>CNHUADPHB</t>
+        </is>
+      </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>MAPTMDMED</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
           <t>TDF</t>
         </is>
       </c>
-      <c r="AT9" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>4.032743055555</v>
-      </c>
-      <c r="AV9" t="inlineStr">
+      <c r="AS9" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.736018518518</v>
+      </c>
+      <c r="AU9" t="inlineStr">
         <is>
           <t xml:space="preserve">0 to 7 days  </t>
         </is>
       </c>
+      <c r="AV9" t="n">
+        <v>6.559027777777</v>
+      </c>
       <c r="AW9" t="n">
-        <v>4.541666666666</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY9" t="n">
         <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>26.891</v>
-      </c>
+        <v>29.209</v>
+      </c>
+      <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>QINGDAO TOWER</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>SSL GUJARAT</t>
+          <t>0BYCAN1MA</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>175G6R</t>
+          <t>KCM2</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>3FCMA</t>
+          <t xml:space="preserve">Ok                           </t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ok                           </t>
+          <t>EXT</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>MEI</t>
+          <t>EXTERNAL</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>EPIC</t>
+          <t>TBN FEEDER 11</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
         <is>
-          <t>CMA CGM FIDELIO</t>
+          <t>TBN11</t>
         </is>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>CMFID</t>
-        </is>
-      </c>
-      <c r="BM9" t="inlineStr">
-        <is>
-          <t>0PE4VW1MA</t>
-        </is>
+          <t>94D2IN</t>
+        </is>
+      </c>
+      <c r="BM9" s="2" t="n">
+        <v>44865.5590277662</v>
       </c>
       <c r="BN9" s="2" t="n">
-        <v>44841.5416666551</v>
-      </c>
-      <c r="BO9" s="2" t="n">
-        <v>44842.5416666551</v>
-      </c>
-      <c r="BP9" t="inlineStr">
-        <is>
-          <t>ECS</t>
-        </is>
-      </c>
-      <c r="BQ9" t="inlineStr">
-        <is>
-          <t>SIRIUS</t>
-        </is>
-      </c>
-      <c r="BR9" t="inlineStr">
-        <is>
-          <t>MAERSK LAMANAI</t>
-        </is>
-      </c>
-      <c r="BS9" t="inlineStr">
-        <is>
-          <t>MKLAM</t>
-        </is>
-      </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>0NSCYN1MA</t>
-        </is>
-      </c>
-      <c r="BU9" s="2" t="n">
-        <v>44861.625</v>
-      </c>
-      <c r="BV9" s="2" t="n">
-        <v>44862.33333333334</v>
-      </c>
-      <c r="BW9" t="inlineStr"/>
-      <c r="BX9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+        <v>44865.56944444445</v>
+      </c>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX9" t="inlineStr"/>
       <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
-      <c r="CA9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>HKHKG ( CIX-3PF ) TT:10d</t>
+        </is>
+      </c>
+      <c r="CA9" s="2" t="n">
+        <v>44867</v>
+      </c>
       <c r="CB9" s="2" t="n">
-        <v>44876.4166666551</v>
-      </c>
-      <c r="CC9" s="2" t="n">
-        <v>44876.33333333334</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>0</v>
-      </c>
+        <v>44843.0625</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>24</v>
+      </c>
+      <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
       <c r="CF9" t="inlineStr"/>
-      <c r="CG9" t="inlineStr"/>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>Beneficial Cargo Owner</t>
+        </is>
+      </c>
       <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>INTTRA</t>
+        </is>
+      </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
-        <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL9" t="inlineStr">
         <is>
           <t>Sent</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>7672</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INMUN</t>
+          <t>HKHKGDHIT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>INMUNDCMA</t>
+          <t>TRACKING</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TRACKING</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GLDU4144795</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>SEKU5585057</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>40</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>45G1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>42G4</t>
+          <t>N</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3587,12 +3495,12 @@
           <t>N</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>N</t>
@@ -3603,209 +3511,177 @@
           <t>N</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Priority cargo to be loaded (No Roll)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>SIJ0406062</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>NAM5584349</t>
+          <t>SIJ0406062</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>NAM5584349</t>
+          <t>SIJ</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>CMA CGM &amp; ANL (SINGAPORE) PTE LTD</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>CMA  CGM America</t>
+          <t>SABIC ASIA PACIFIC PTE LTD</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>FLEXPORT INTERNATIONAL LLC</t>
+          <t>GA188P-DIT</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>21-3235</t>
+          <t>SABIC (CHINA) HOLDING CO., LTD.</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>FLEXPORT INTERNATIONAL LLC C/O</t>
+          <t>TO ORDER</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>BRIDGES TO PROSPERITY RWANDA</t>
+          <t>XIAMEN XIANGYU CHEMICAL CO.,LTD</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>FREIGHT FORWARDERS TANZANIA LTD</t>
+          <t>SABIC</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>FLEXPORT INTERNATIONAL LLC</t>
+          <t>Ethylene-alpha-olefin copolymers, having a specific gravity</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Sheet piling of iron or steel, whether or not drilled, punch</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>USNYC</t>
-        </is>
-      </c>
+          <t>SGSIN</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>TZDAR</t>
+          <t>CNHUA</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>TZDAR</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>TZDARDTIC</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
           <t>TDF</t>
         </is>
       </c>
-      <c r="AT10" s="2" t="n">
-        <v>44839</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>2.128576388888</v>
-      </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AS10" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>1.218657407407</v>
+      </c>
+      <c r="AU10" t="inlineStr">
         <is>
           <t xml:space="preserve">0 to 7 days  </t>
         </is>
       </c>
+      <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="n">
-        <v>3.354166666666</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>24.162</v>
-      </c>
+        <v>29.069</v>
+      </c>
+      <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CMA CGM CAIMEP</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>CMA CGM IVANHOE</t>
+          <t>0BYCCN1MA</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>0INCNW1MA</t>
+          <t>KCM2</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>INDAMEX</t>
-        </is>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ok                           </t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>SWAX2</t>
-        </is>
-      </c>
-      <c r="BK10" t="inlineStr">
-        <is>
-          <t>AS NORA</t>
-        </is>
-      </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>ASNRA</t>
-        </is>
-      </c>
-      <c r="BM10" t="inlineStr">
-        <is>
-          <t>02SCRS1MA</t>
-        </is>
-      </c>
-      <c r="BN10" s="2" t="n">
-        <v>44842.3541666551</v>
-      </c>
-      <c r="BO10" s="2" t="n">
-        <v>44843.2291666551</v>
-      </c>
+          <t xml:space="preserve">Missing nomination           </t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
@@ -3813,46 +3689,657 @@
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr"/>
       <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>HKHKG ( CIX-3PF ) TT:10d</t>
+        </is>
+      </c>
       <c r="CA10" t="inlineStr"/>
       <c r="CB10" s="2" t="n">
-        <v>44858.75</v>
-      </c>
-      <c r="CC10" s="2" t="n">
-        <v>44844.70833333334</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>14</v>
-      </c>
+        <v>44841.42083333333</v>
+      </c>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
       <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr">
-        <is>
-          <t>Freight Forwarder</t>
-        </is>
-      </c>
-      <c r="CI10" t="inlineStr"/>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>Beneficial Cargo Owner</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr"/>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>INTTRA</t>
+        </is>
+      </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>WEB</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>BKG_1STEP</t>
-        </is>
-      </c>
-      <c r="CL10" t="inlineStr">
-        <is>
-          <t>Not Sent</t>
+          <t>Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HKHKGDHIT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TRACKING</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SEKU6059925</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>45G1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Priority cargo to be loaded (No Roll)</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>SIJ0406062</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>SIJ0406062</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>SIJ</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>CMA CGM &amp; ANL (SINGAPORE) PTE LTD</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>SABIC ASIA PACIFIC PTE LTD</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>GA188P-DIT</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>SABIC (CHINA) HOLDING CO., LTD.</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>TO ORDER</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>XIAMEN XIANGYU CHEMICAL CO.,LTD</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>SABIC</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>Ethylene-alpha-olefin copolymers, having a specific gravity</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>SGSIN</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>CNHUA</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>TDF</t>
+        </is>
+      </c>
+      <c r="AS11" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1.28949074074</v>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 to 7 days  </t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>29.069</v>
+      </c>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>CMA CGM CAIMEP</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>0BYCCN1MA</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>KCM2</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Missing nomination           </t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>HKHKG ( CIX-3PF ) TT:10d</t>
+        </is>
+      </c>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" s="2" t="n">
+        <v>44841.42083333333</v>
+      </c>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
+      <c r="CE11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr"/>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>Beneficial Cargo Owner</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>INTTRA</t>
+        </is>
+      </c>
+      <c r="CJ11" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="CK11" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HKHKG</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HKHKGDHIT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TRACKING</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TEMU4832175</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>22G1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Priority cargo to be loaded (No Roll)</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>SIJ0407144</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>SIJ0407144</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>SIJ</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>CMA CGM &amp; ANL (SINGAPORE) PTE LTD</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>SABIC ASIA PACIFIC PTE LTD</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>GA188P-DIT</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>SABIC (CHINA) HOLDING CO., LTD.</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>TO ORDER</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>SINOCHEM PLASTICS COMPANY LTD.</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>SABIC</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>Poly"methyl methacrylate", in primary forms</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>SGSIN</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>CNHUA</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>CNHUA</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>CNHUADPHB</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>TDF</t>
+        </is>
+      </c>
+      <c r="AS12" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.932546296296</v>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 to 7 days  </t>
+        </is>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.440972222222</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>18.552</v>
+      </c>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>QINGDAO TOWER</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>0BYCAN1MA</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>KCM2</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>Nomination on departed vessel</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>EXT</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>EXTERNAL</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>TBN FEEDER 11</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>TBN11</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>93D2IN</t>
+        </is>
+      </c>
+      <c r="BM12" s="2" t="n">
+        <v>44858.5590277662</v>
+      </c>
+      <c r="BN12" s="2" t="n">
+        <v>44858.56944444445</v>
+      </c>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>HKHKG ( CIX-3PF ) TT:10d</t>
+        </is>
+      </c>
+      <c r="CA12" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="CB12" s="2" t="n">
+        <v>44846.9166666551</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>14</v>
+      </c>
+      <c r="CD12" t="inlineStr"/>
+      <c r="CE12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>Nomination on departed vessel</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>Beneficial Cargo Owner</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr"/>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>INTTRA</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>Sent</t>
         </is>
       </c>
     </row>
